--- a/AfDD_2021_List_of_indicators.xlsx
+++ b/AfDD_2021_List_of_indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -1374,6 +1374,9 @@
     <t>ExpUnproc</t>
   </si>
   <si>
+    <t>Table 19</t>
+  </si>
+  <si>
     <t>Total exports of unprocessed goods (millions of USD)</t>
   </si>
   <si>
@@ -1402,9 +1405,6 @@
   </si>
   <si>
     <t>ExpAllProc</t>
-  </si>
-  <si>
-    <t>Table 19</t>
   </si>
   <si>
     <t>Total exports of processed and unprocessed goods (millions of USD)</t>
@@ -2133,7 +2133,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2333,10 +2333,10 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
+        <color theme="10"/>
         <name val="Calibri Light"/>
         <scheme val="major"/>
       </font>
@@ -2773,7 +2773,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
@@ -5068,7 +5068,7 @@
         <v>99.992079515057597</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="19" customFormat="1" ht="147" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" s="19" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="14" t="s">
         <v>187</v>
@@ -5119,7 +5119,7 @@
         <v>99.992079515057597</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="19" customFormat="1" ht="147" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" s="19" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="14" t="s">
         <v>190</v>
@@ -5170,7 +5170,7 @@
         <v>99.992079515057597</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="19" customFormat="1" ht="147" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" s="19" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="14" t="s">
         <v>192</v>
@@ -5221,7 +5221,7 @@
         <v>99.992079515057597</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="19" customFormat="1" ht="147" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" s="19" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A51" s="13"/>
       <c r="B51" s="14" t="s">
         <v>194</v>
@@ -8587,7 +8587,7 @@
         <v>99.415673267689399</v>
       </c>
     </row>
-    <row r="117" spans="1:17" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A117" s="13"/>
       <c r="B117" s="14" t="s">
         <v>395</v>
@@ -9460,13 +9460,13 @@
         <v>446</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F134" s="17" t="s">
         <v>35</v>
@@ -9508,16 +9508,16 @@
     <row r="135" spans="1:17" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A135" s="13"/>
       <c r="B135" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F135" s="17" t="s">
         <v>35</v>
@@ -9559,16 +9559,16 @@
     <row r="136" spans="1:17" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A136" s="13"/>
       <c r="B136" s="14" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F136" s="17" t="s">
         <v>35</v>
@@ -9610,10 +9610,10 @@
     <row r="137" spans="1:17" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A137" s="13"/>
       <c r="B137" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>457</v>
@@ -9664,7 +9664,7 @@
         <v>459</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>271</v>
+        <v>447</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>460</v>
@@ -9715,7 +9715,7 @@
         <v>462</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>294</v>
+        <v>447</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>463</v>
@@ -9766,7 +9766,7 @@
         <v>465</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>466</v>
@@ -9817,7 +9817,7 @@
         <v>468</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>354</v>
+        <v>447</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>469</v>
@@ -10984,7 +10984,7 @@
         <v>98.101855024483996</v>
       </c>
     </row>
-    <row r="164" spans="1:17" s="19" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A164" s="13"/>
       <c r="B164" s="14" t="s">
         <v>537</v>
@@ -11239,7 +11239,7 @@
         <v>46.6319777341118</v>
       </c>
     </row>
-    <row r="169" spans="1:17" s="19" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A169" s="13"/>
       <c r="B169" s="14" t="s">
         <v>553</v>
@@ -12518,11 +12518,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C185:C200" location="'Tab23'!A1" display="Table 23"/>
-    <hyperlink ref="B194" r:id="rId1"/>
-    <hyperlink ref="B195" r:id="rId2"/>
-    <hyperlink ref="B196" r:id="rId3"/>
-    <hyperlink ref="B192" r:id="rId4"/>
+    <hyperlink ref="B192" r:id="rId1"/>
+    <hyperlink ref="B194" r:id="rId2"/>
+    <hyperlink ref="B195" r:id="rId3"/>
+    <hyperlink ref="B196" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/AfDD_2021_List_of_indicators.xlsx
+++ b/AfDD_2021_List_of_indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="658">
   <si>
     <t>List of indicators, descriptions and details</t>
   </si>
@@ -319,7 +319,7 @@
     <t>Population living in urban agglomerations of 300,000 to 1 million inhabitants (thousands)</t>
   </si>
   <si>
-    <t>Author's calculations based on the World Urbanization Prospects: The 2018 Revision, from UN Department of Economic and Social Affairs (UNDESA). 
+    <t>Author's calculations based on the World Urbanization Prospects: The 2019 Revision, from UN Department of Economic and Social Affairs (UNDESA). 
 Sum of population estimates for individual cities with populations reported between 300,000 and 1 million. Populations are as of 1 July of the year indicated. Figures are reported by the UNDESA on a five-year-basis, so interpolation is used to produce annual figures.</t>
   </si>
   <si>
@@ -332,7 +332,7 @@
     <t>Number of urban agglomerations of 300,000 to 1 million inhabitants</t>
   </si>
   <si>
-    <t>Count of cities in the World Urbanization Prospects: The 2018 Revision, from UN Department of Economic and Social Affairs (UNDESA), reported as containing at between 300,000 and 1 million inhabitants.</t>
+    <t>Count of cities in the World Urbanization Prospects: The 2019 Revision, from UN Department of Economic and Social Affairs (UNDESA), reported as containing at between 300,000 and 1 million inhabitants.</t>
   </si>
   <si>
     <t>Number</t>
@@ -344,7 +344,7 @@
     <t>Population living in urban agglomerations of over 1 million inhabitants (thousands)</t>
   </si>
   <si>
-    <t>Author's calculations based on the World Urbanization Prospects: The 2018 Revision, from UN Department of Economic and Social Affairs (UNDESA). 
+    <t>Author's calculations based on the World Urbanization Prospects: The 2019 Revision, from UN Department of Economic and Social Affairs (UNDESA). 
 Sum of population estimates for individual cities with populations reported over 1 million. Populations are as of 1 July of the year indicated. Figures are reported by the UNDESA on a five-year-basis, so interpolation is used to produce annual figures.</t>
   </si>
   <si>
@@ -354,7 +354,7 @@
     <t>Number of urban agglomerations of over 1 million inhabitants</t>
   </si>
   <si>
-    <t>Count of cities in the World Urbanization Prospects: The 2018 Revision, from UN Department of Economic and Social Affairs (UNDESA), reported as containing at least 1 million inhabitants.</t>
+    <t>Count of cities in the World Urbanization Prospects: The 2019 Revision, from UN Department of Economic and Social Affairs (UNDESA), reported as containing at least 1 million inhabitants.</t>
   </si>
   <si>
     <t>OldDepRatio</t>
@@ -655,7 +655,7 @@
     <t>Oil rents (% of GDP)</t>
   </si>
   <si>
-    <t>From World Bank documentation: "Oil rents are the difference between the value of crude oil production at regional prices and total costs of production. The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP). World Bank staff estimates are based on sources and methods described in 'The Changing Wealth of Nations 2018: Building a Sustainable Future' (Lange et al 2018)."</t>
+    <t>From World Bank documentation: "Oil rents are the difference between the value of crude oil production at regional prices and total costs of production. The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP). World Bank staff estimates are based on sources and methods described in 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019)."</t>
   </si>
   <si>
     <t>MinRent</t>
@@ -664,7 +664,7 @@
     <t>Mineral rents (% of GDP)</t>
   </si>
   <si>
-    <t>From World Bank documentation: "Mineral rents are the difference between the value of production for a stock of minerals at world prices and their total costs of production. Minerals included in the calculation are tin, gold, lead, zinc, iron, copper, nickel, silver, bauxite, and phosphate. World Bank staff estimates based on sources and methods described in 'The Changing Wealth of Nations 2018: Building a Sustainable Future' (Lange et al 2018). The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP)."</t>
+    <t>From World Bank documentation: "Mineral rents are the difference between the value of production for a stock of minerals at world prices and their total costs of production. Minerals included in the calculation are tin, gold, lead, zinc, iron, copper, nickel, silver, bauxite, and phosphate. World Bank staff estimates based on sources and methods described in 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019). The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP)."</t>
   </si>
   <si>
     <t>TotNRRent</t>
@@ -673,7 +673,7 @@
     <t>Total natural resources rents (% of GDP)</t>
   </si>
   <si>
-    <t>From World Bank documentation: "Total natural resources rents are the sum of oil rents, natural gas rents, coal rents (hard and soft), mineral rents, and forest rents. The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP). World Bank staff estimates based on sources and methods described in 'The Changing Wealth of Nations 2018: Building a Sustainable Future' (Lange et al 2018)"</t>
+    <t>From World Bank documentation: "Total natural resources rents are the sum of oil rents, natural gas rents, coal rents (hard and soft), mineral rents, and forest rents. The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP). World Bank staff estimates based on sources and methods described in 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019)"</t>
   </si>
   <si>
     <t>AgrFrPerGDP</t>
@@ -898,7 +898,7 @@
     <t>Social Institutions and Gender Index (SIGI) 2019</t>
   </si>
   <si>
-    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. Discriminatory social institutions are defined as the formal and informal laws, attitudes and practices that restrict women’s and girls’ access to rights, justice and empowerment opportunities. These are captured in a multi-faceted approach by SIGI’s variables that combine qualitative and quantitative data, taking into account both the de jure and de facto discrimination of social institutions, through information on laws, attitudes and practices. The variables span all stages of a woman’s life in order to show how discriminatory social institutions can interlock and bind them into cycles of poverty and disempowerment. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2018. For more information, see</t>
+    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. Discriminatory social institutions are defined as the formal and informal laws, attitudes and practices that restrict women’s and girls’ access to rights, justice and empowerment opportunities. These are captured in a multi-faceted approach by SIGI’s variables that combine qualitative and quantitative data, taking into account both the de jure and de facto discrimination of social institutions, through information on laws, attitudes and practices. The variables span all stages of a woman’s life in order to show how discriminatory social institutions can interlock and bind them into cycles of poverty and disempowerment. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see</t>
   </si>
   <si>
     <t>2015-2019</t>
@@ -913,7 +913,7 @@
     <t>Discrimination in the family (SIGI subindex) 2019</t>
   </si>
   <si>
-    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "discrimination in the family" sub-index captures social institutions that limit women’s decision-making power and undervalues their status in the household and the family. These formal and informal laws, social norms and practices co-exist in different types of legal systems including civil or common law, customary law, and religious laws and cover areas such as marriage, parental authority, household responsibilities, divorce and inheritance rights. Women’s decision-making power and status in the family determine both their ability to choose their own development pathways and the well-being of their families. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2018. For more information, see</t>
+    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "discrimination in the family" sub-index captures social institutions that limit women’s decision-making power and undervalues their status in the household and the family. These formal and informal laws, social norms and practices co-exist in different types of legal systems including civil or common law, customary law, and religious laws and cover areas such as marriage, parental authority, household responsibilities, divorce and inheritance rights. Women’s decision-making power and status in the family determine both their ability to choose their own development pathways and the well-being of their families. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see</t>
   </si>
   <si>
     <t>SIGIPHYS</t>
@@ -922,7 +922,7 @@
     <t>Restricted physical integrity (SIGI subindex) 2019</t>
   </si>
   <si>
-    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted physical integrity" sub-index captures social institutions that limit women’s and girls’ control over their bodies, that increase women’s vulnerability, and that normalise attitudes toward gender-based violence. This includes formal and informal laws, norms and practices that fail to protect women’s physical integrity and reproductive autonomy and that allow violence and female genital mutilation. Restricted physical integrity due to gender-based violence and to a lack of reproductive autonomy has serious impacts on health outcomes for women and their children and on economic and social development indicators by increasing women’s vulnerability to poverty. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2018. For more information, see</t>
+    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted physical integrity" sub-index captures social institutions that limit women’s and girls’ control over their bodies, that increase women’s vulnerability, and that normalise attitudes toward gender-based violence. This includes formal and informal laws, norms and practices that fail to protect women’s physical integrity and reproductive autonomy and that allow violence and female genital mutilation. Restricted physical integrity due to gender-based violence and to a lack of reproductive autonomy has serious impacts on health outcomes for women and their children and on economic and social development indicators by increasing women’s vulnerability to poverty. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see</t>
   </si>
   <si>
     <t>SIGIRES</t>
@@ -931,7 +931,7 @@
     <t>Restricted access to productive and financial resources (SIGI subindex) 2019</t>
   </si>
   <si>
-    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted access to productive and financial services" sub-index captures women’s restricted access to and control over critical productive and economic resources and assets. This includes discriminatory laws, which deny women’s rights to own, control or use land and non-land assets, to decent work and financial services; discriminatory customary practices in ownership or decision-making over land, household property and other assets; discriminatory practices or attitudes towards women’s formal work; and social norms dictating that women’s property ownership or access to credit should be mediated by men. Insecure or weak rights to land, non-land assets and financial services reduce income-generating opportunities for women, lower decision-making power for women within the household, increase food insecurity for women and their families, and make women and families more vulnerable to poverty. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2018. For more information, see</t>
+    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted access to productive and financial services" sub-index captures women’s restricted access to and control over critical productive and economic resources and assets. This includes discriminatory laws, which deny women’s rights to own, control or use land and non-land assets, to decent work and financial services; discriminatory customary practices in ownership or decision-making over land, household property and other assets; discriminatory practices or attitudes towards women’s formal work; and social norms dictating that women’s property ownership or access to credit should be mediated by men. Insecure or weak rights to land, non-land assets and financial services reduce income-generating opportunities for women, lower decision-making power for women within the household, increase food insecurity for women and their families, and make women and families more vulnerable to poverty. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see</t>
   </si>
   <si>
     <t>SIGICIV</t>
@@ -940,7 +940,7 @@
     <t>Restricted civil liberties (SIGI subindex) 2019</t>
   </si>
   <si>
-    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted civil liberties" sub-index captures discriminatory laws and practices that restrict women’s access to public space, their political voice and their participation in all aspects of public life. This includes a lack of freedom of movement, the inability to vote or run for election, and negative attitudes toward women as public figures or as leaders. This sub-index highlights the importance of women’s participation in community actions and public decision making for a range of development outcomes such as governance, health and education. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2018. For more information, see</t>
+    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted civil liberties" sub-index captures discriminatory laws and practices that restrict women’s access to public space, their political voice and their participation in all aspects of public life. This includes a lack of freedom of movement, the inability to vote or run for election, and negative attitudes toward women as public figures or as leaders. This sub-index highlights the importance of women’s participation in community actions and public decision making for a range of development outcomes such as governance, health and education. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see</t>
   </si>
   <si>
     <t>IntntSubsPer100</t>
@@ -1426,7 +1426,7 @@
     <t>General government domestic currency gross debt as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Figures up to 2018 are estimates. Figures from 2019 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information:</t>
+    <t>From the World Economic Outlook. Figures up to 2019 are estimates. Figures from 2019 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information:</t>
   </si>
   <si>
     <t>GrossDebtFPerGDP</t>
@@ -1436,6 +1436,9 @@
   </si>
   <si>
     <t>ExpUnproc</t>
+  </si>
+  <si>
+    <t>Table 19</t>
   </si>
   <si>
     <t>Total exports of unprocessed goods (millions of USD)</t>
@@ -1471,9 +1474,6 @@
     <t>ExpAllProc</t>
   </si>
   <si>
-    <t>Table 19</t>
-  </si>
-  <si>
     <t>Total exports of processed and unprocessed goods (millions of USD)</t>
   </si>
   <si>
@@ -1635,6 +1635,15 @@
     <t>From the World Economic Outlook. Total exports as a % of GDP. See the Statistical Appendix to the latest World Economic Outlook for more information:</t>
   </si>
   <si>
+    <t>HHIProd</t>
+  </si>
+  <si>
+    <t>Herfindahl-Hirschmann Concentration Index of export products</t>
+  </si>
+  <si>
+    <t>Authors’ calculations based on COMTRADE WITS Online Database. The Herfindahl-Hirschmann concentration index (HHI) is a measure of concentration constructed as the sum of the squares of sectoral shares and normalized to range from 0 to 1. The HHI index calculated over export products here are calculated over data reported by the UN Comtrade dataset of exports at a four-digit level of disaggregation on the 1996 Harmonised System commodity code. The HHI is calculated as a sum of the squares of total exports for each product as a percentage of all exports (expressed as fractions). By construction, the index is therefore always between 0 and 1, reaching 1 when exports are maximally concentrated, with only one export product, and is lower when exports are more diversified.</t>
+  </si>
+  <si>
     <t>RECExpPct</t>
   </si>
   <si>
@@ -1740,7 +1749,7 @@
     <t>Net ODA reported by the OECD Development Assessment Committtee, from all donors, in US dollars at current prices as a % of US dollar GDP according to the World Economic Outlook.</t>
   </si>
   <si>
-    <t>Official Development Assistance (ODA) reported by OECD Development Assistance Committee (updated 29/10/2020)</t>
+    <t>Official Development Assistance (ODA) reported by OECD Development Assistance Committee (last update 21/01/2021)</t>
   </si>
   <si>
     <t>UNCTADFDIPGD</t>
@@ -2077,7 +2086,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2125,12 +2134,6 @@
       <color theme="10"/>
       <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -2255,19 +2258,19 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2665,7 +2668,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4" displayName="Table4" ref="B3:R193" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4" displayName="Table4" ref="B3:R194" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
     <tableColumn id="1" name="Indicator Code" dataDxfId="16"/>
     <tableColumn id="14" name="Table" dataDxfId="15" dataCellStyle="Hyperlink"/>
@@ -2952,7 +2955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R204"/>
+  <dimension ref="A1:R205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -10078,16 +10081,16 @@
     </row>
     <row r="134" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A134" s="13"/>
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="19" t="s">
         <v>464</v>
       </c>
       <c r="C134" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="D134" s="25" t="s">
+      <c r="D134" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="E134" s="25" t="s">
+      <c r="E134" s="21" t="s">
         <v>466</v>
       </c>
       <c r="F134" s="22" t="s">
@@ -10126,22 +10129,22 @@
       <c r="Q134" s="23">
         <v>58.572747383669999</v>
       </c>
-      <c r="R134" s="25" t="s">
+      <c r="R134" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A135" s="13"/>
-      <c r="B135" s="24" t="s">
+      <c r="B135" s="19" t="s">
         <v>467</v>
       </c>
       <c r="C135" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="D135" s="25" t="s">
+      <c r="D135" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="E135" s="25" t="s">
+      <c r="E135" s="21" t="s">
         <v>466</v>
       </c>
       <c r="F135" s="22" t="s">
@@ -10180,7 +10183,7 @@
       <c r="Q135" s="23">
         <v>59.706237198836703</v>
       </c>
-      <c r="R135" s="25" t="s">
+      <c r="R135" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10190,13 +10193,13 @@
         <v>469</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>399</v>
+        <v>470</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F136" s="22" t="s">
         <v>38</v>
@@ -10235,22 +10238,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R136" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="1:18" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A137" s="13"/>
       <c r="B137" s="19" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F137" s="22" t="s">
         <v>38</v>
@@ -10289,22 +10292,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R137" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="138" spans="1:18" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A138" s="13"/>
       <c r="B138" s="19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F138" s="22" t="s">
         <v>38</v>
@@ -10343,16 +10346,16 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R138" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A139" s="13"/>
       <c r="B139" s="19" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D139" s="21" t="s">
         <v>481</v>
@@ -10397,7 +10400,7 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R139" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:18" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
@@ -10406,7 +10409,7 @@
         <v>483</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>282</v>
+        <v>470</v>
       </c>
       <c r="D140" s="21" t="s">
         <v>484</v>
@@ -10451,7 +10454,7 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R140" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="141" spans="1:18" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
@@ -10460,7 +10463,7 @@
         <v>486</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>306</v>
+        <v>470</v>
       </c>
       <c r="D141" s="21" t="s">
         <v>487</v>
@@ -10505,7 +10508,7 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R141" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="142" spans="1:18" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
@@ -10514,7 +10517,7 @@
         <v>489</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>334</v>
+        <v>470</v>
       </c>
       <c r="D142" s="21" t="s">
         <v>490</v>
@@ -10559,7 +10562,7 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R142" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="143" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
@@ -10568,7 +10571,7 @@
         <v>492</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>371</v>
+        <v>470</v>
       </c>
       <c r="D143" s="21" t="s">
         <v>493</v>
@@ -10613,7 +10616,7 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R143" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="144" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
@@ -11318,31 +11321,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:18" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A157" s="13"/>
       <c r="B157" s="19" t="s">
         <v>534</v>
       </c>
       <c r="C157" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="D157" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="D157" s="21" t="s">
+      <c r="E157" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="E157" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="F157" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G157" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H157" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I157" s="22" t="s">
-        <v>25</v>
+      <c r="F157" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G157" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H157" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="I157" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="J157" s="22" t="s">
         <v>124</v>
@@ -11350,35 +11353,35 @@
       <c r="K157" s="22">
         <v>2018</v>
       </c>
-      <c r="L157" s="23">
-        <v>100</v>
-      </c>
-      <c r="M157" s="23">
-        <v>100</v>
-      </c>
-      <c r="N157" s="23">
-        <v>100</v>
-      </c>
-      <c r="O157" s="23">
-        <v>35.251798561151098</v>
-      </c>
-      <c r="P157" s="23">
-        <v>24.108685496412601</v>
-      </c>
-      <c r="Q157" s="23">
-        <v>28.824739991375498</v>
-      </c>
-      <c r="R157" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="L157" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="M157" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="N157" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="O157" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="P157" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q157" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="R157" s="27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A158" s="13"/>
       <c r="B158" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="C158" s="31" t="s">
         <v>538</v>
-      </c>
-      <c r="C158" s="31" t="s">
-        <v>535</v>
       </c>
       <c r="D158" s="21" t="s">
         <v>539</v>
@@ -11405,34 +11408,34 @@
         <v>2018</v>
       </c>
       <c r="L158" s="23">
-        <v>98.148148148148195</v>
+        <v>100</v>
       </c>
       <c r="M158" s="23">
-        <v>99.122953180860605</v>
+        <v>100</v>
       </c>
       <c r="N158" s="23">
-        <v>99.854977902943503</v>
-      </c>
-      <c r="O158" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="P158" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q158" s="23" t="s">
-        <v>499</v>
+        <v>100</v>
+      </c>
+      <c r="O158" s="23">
+        <v>35.251798561151098</v>
+      </c>
+      <c r="P158" s="23">
+        <v>24.108685496412601</v>
+      </c>
+      <c r="Q158" s="23">
+        <v>28.824739991375498</v>
       </c>
       <c r="R158" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A159" s="13"/>
       <c r="B159" s="19" t="s">
         <v>541</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D159" s="21" t="s">
         <v>542</v>
@@ -11459,34 +11462,34 @@
         <v>2018</v>
       </c>
       <c r="L159" s="23">
-        <v>100</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M159" s="23">
-        <v>100</v>
+        <v>99.122953180860605</v>
       </c>
       <c r="N159" s="23">
-        <v>100</v>
-      </c>
-      <c r="O159" s="23">
-        <v>98.561151079136707</v>
-      </c>
-      <c r="P159" s="23">
-        <v>99.998786535806502</v>
-      </c>
-      <c r="Q159" s="23">
-        <v>100</v>
+        <v>99.854977902943503</v>
+      </c>
+      <c r="O159" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="P159" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q159" s="23" t="s">
+        <v>499</v>
       </c>
       <c r="R159" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A160" s="13"/>
       <c r="B160" s="19" t="s">
         <v>544</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D160" s="21" t="s">
         <v>545</v>
@@ -11531,16 +11534,16 @@
         <v>100</v>
       </c>
       <c r="R160" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A161" s="13"/>
       <c r="B161" s="19" t="s">
         <v>547</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D161" s="21" t="s">
         <v>548</v>
@@ -11585,16 +11588,16 @@
         <v>100</v>
       </c>
       <c r="R161" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A162" s="13"/>
       <c r="B162" s="19" t="s">
         <v>550</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D162" s="21" t="s">
         <v>551</v>
@@ -11630,25 +11633,25 @@
         <v>100</v>
       </c>
       <c r="O162" s="23">
-        <v>97.122302158273399</v>
+        <v>98.561151079136707</v>
       </c>
       <c r="P162" s="23">
-        <v>94.412322632061603</v>
+        <v>99.998786535806502</v>
       </c>
       <c r="Q162" s="23">
-        <v>82.892978726599907</v>
+        <v>100</v>
       </c>
       <c r="R162" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A163" s="13"/>
       <c r="B163" s="19" t="s">
         <v>553</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D163" s="21" t="s">
         <v>554</v>
@@ -11657,10 +11660,10 @@
         <v>555</v>
       </c>
       <c r="F163" s="22" t="s">
-        <v>556</v>
+        <v>43</v>
       </c>
       <c r="G163" s="22" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H163" s="22" t="s">
         <v>24</v>
@@ -11675,43 +11678,43 @@
         <v>2018</v>
       </c>
       <c r="L163" s="23">
-        <v>72.2222222222222</v>
+        <v>100</v>
       </c>
       <c r="M163" s="23">
-        <v>81.077757485970196</v>
+        <v>100</v>
       </c>
       <c r="N163" s="23">
-        <v>85.766234893058098</v>
+        <v>100</v>
       </c>
       <c r="O163" s="23">
-        <v>78.417266187050402</v>
+        <v>97.122302158273399</v>
       </c>
       <c r="P163" s="23">
-        <v>94.010132313224005</v>
+        <v>94.412322632061603</v>
       </c>
       <c r="Q163" s="23">
-        <v>98.101855024483996</v>
+        <v>82.892978726599907</v>
       </c>
       <c r="R163" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="164" spans="1:18" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A164" s="13"/>
       <c r="B164" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="C164" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="D164" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="C164" s="31" t="s">
-        <v>535</v>
-      </c>
-      <c r="D164" s="21" t="s">
+      <c r="E164" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="E164" s="21" t="s">
+      <c r="F164" s="22" t="s">
         <v>559</v>
-      </c>
-      <c r="F164" s="22" t="s">
-        <v>556</v>
       </c>
       <c r="G164" s="22" t="s">
         <v>33</v>
@@ -11747,7 +11750,7 @@
         <v>98.101855024483996</v>
       </c>
       <c r="R164" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="165" spans="1:18" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
@@ -11756,16 +11759,16 @@
         <v>560</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D165" s="21" t="s">
         <v>561</v>
       </c>
       <c r="E165" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="F165" s="22" t="s">
         <v>559</v>
-      </c>
-      <c r="F165" s="22" t="s">
-        <v>556</v>
       </c>
       <c r="G165" s="22" t="s">
         <v>33</v>
@@ -11801,70 +11804,70 @@
         <v>98.101855024483996</v>
       </c>
       <c r="R165" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A166" s="13"/>
       <c r="B166" s="19" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="D166" s="21" t="s">
         <v>564</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F166" s="22" t="s">
-        <v>43</v>
+        <v>559</v>
       </c>
       <c r="G166" s="22" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H166" s="22" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I166" s="22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J166" s="22" t="s">
-        <v>453</v>
+        <v>124</v>
       </c>
       <c r="K166" s="22">
         <v>2018</v>
       </c>
       <c r="L166" s="23">
-        <v>88.8888888888889</v>
+        <v>72.2222222222222</v>
       </c>
       <c r="M166" s="23">
-        <v>96.149786188102894</v>
+        <v>81.077757485970196</v>
       </c>
       <c r="N166" s="23">
-        <v>97.625024852617102</v>
+        <v>85.766234893058098</v>
       </c>
       <c r="O166" s="23">
-        <v>89.208633093525194</v>
+        <v>78.417266187050402</v>
       </c>
       <c r="P166" s="23">
-        <v>98.871953848082498</v>
+        <v>94.010132313224005</v>
       </c>
       <c r="Q166" s="23">
-        <v>99.913565393278006</v>
+        <v>98.101855024483996</v>
       </c>
       <c r="R166" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A167" s="13"/>
       <c r="B167" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="C167" s="31" t="s">
         <v>566</v>
-      </c>
-      <c r="C167" s="31" t="s">
-        <v>563</v>
       </c>
       <c r="D167" s="21" t="s">
         <v>567</v>
@@ -11885,46 +11888,46 @@
         <v>45</v>
       </c>
       <c r="J167" s="22" t="s">
-        <v>62</v>
+        <v>453</v>
       </c>
       <c r="K167" s="22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L167" s="23">
-        <v>98.148148148148195</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="M167" s="23">
-        <v>99.992380036161904</v>
+        <v>96.164807928937705</v>
       </c>
       <c r="N167" s="23">
-        <v>99.955997604474703</v>
+        <v>97.533226471260306</v>
       </c>
       <c r="O167" s="23">
-        <v>56.834532374100696</v>
+        <v>88.489208633093497</v>
       </c>
       <c r="P167" s="23">
-        <v>77.927440489696906</v>
+        <v>98.865738314873298</v>
       </c>
       <c r="Q167" s="23">
-        <v>46.717028788169003</v>
+        <v>99.908988005939605</v>
       </c>
       <c r="R167" s="21" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A168" s="13"/>
       <c r="B168" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="C168" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="D168" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="C168" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="D168" s="21" t="s">
+      <c r="E168" s="21" t="s">
         <v>571</v>
-      </c>
-      <c r="E168" s="21" t="s">
-        <v>572</v>
       </c>
       <c r="F168" s="22" t="s">
         <v>43</v>
@@ -11942,43 +11945,43 @@
         <v>124</v>
       </c>
       <c r="K168" s="22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L168" s="23">
-        <v>96.296296296296305</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M168" s="23">
-        <v>92.878177387148398</v>
+        <v>99.992517839640996</v>
       </c>
       <c r="N168" s="23">
-        <v>97.195068072955394</v>
+        <v>99.955697966479804</v>
       </c>
       <c r="O168" s="23">
-        <v>93.525179856115102</v>
+        <v>56.834532374100696</v>
       </c>
       <c r="P168" s="23">
-        <v>99.142281622906097</v>
+        <v>78.020047379432796</v>
       </c>
       <c r="Q168" s="23">
-        <v>99.997894242584493</v>
+        <v>47.250899348413199</v>
       </c>
       <c r="R168" s="21" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A169" s="13"/>
       <c r="B169" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="C169" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="D169" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="C169" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="D169" s="21" t="s">
+      <c r="E169" s="21" t="s">
         <v>575</v>
-      </c>
-      <c r="E169" s="21" t="s">
-        <v>576</v>
       </c>
       <c r="F169" s="22" t="s">
         <v>43</v>
@@ -11993,46 +11996,46 @@
         <v>45</v>
       </c>
       <c r="J169" s="22" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="K169" s="22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L169" s="23">
-        <v>90.740740740740804</v>
+        <v>96.296296296296305</v>
       </c>
       <c r="M169" s="23">
-        <v>97.521245242256995</v>
+        <v>92.837284889669604</v>
       </c>
       <c r="N169" s="23">
-        <v>97.675982140329893</v>
+        <v>97.092339981866601</v>
       </c>
       <c r="O169" s="23">
-        <v>90.647482014388501</v>
+        <v>93.525179856115102</v>
       </c>
       <c r="P169" s="23">
-        <v>98.953547291346297</v>
+        <v>99.145279268283701</v>
       </c>
       <c r="Q169" s="23">
-        <v>99.354189731272498</v>
+        <v>99.9979269779178</v>
       </c>
       <c r="R169" s="21" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A170" s="13"/>
       <c r="B170" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="C170" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="D170" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="C170" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="D170" s="21" t="s">
+      <c r="E170" s="21" t="s">
         <v>579</v>
-      </c>
-      <c r="E170" s="21" t="s">
-        <v>580</v>
       </c>
       <c r="F170" s="22" t="s">
         <v>43</v>
@@ -12047,46 +12050,46 @@
         <v>45</v>
       </c>
       <c r="J170" s="22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K170" s="22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L170" s="23">
-        <v>77.7777777777778</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M170" s="23">
-        <v>87.589860091659602</v>
+        <v>97.525675267402903</v>
       </c>
       <c r="N170" s="23">
-        <v>95.096496102147995</v>
+        <v>97.6299595675614</v>
       </c>
       <c r="O170" s="23">
-        <v>49.640287769784202</v>
+        <v>90.647482014388501</v>
       </c>
       <c r="P170" s="23">
-        <v>77.653192512657597</v>
+        <v>98.954597130206494</v>
       </c>
       <c r="Q170" s="23">
-        <v>46.6319777341118</v>
+        <v>99.360149288611197</v>
       </c>
       <c r="R170" s="21" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="13"/>
+      <c r="B171" s="19" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A171" s="13"/>
-      <c r="B171" s="24" t="s">
+      <c r="C171" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="D171" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="C171" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="D171" s="21" t="s">
+      <c r="E171" s="21" t="s">
         <v>583</v>
-      </c>
-      <c r="E171" s="21" t="s">
-        <v>466</v>
       </c>
       <c r="F171" s="22" t="s">
         <v>43</v>
@@ -12101,97 +12104,97 @@
         <v>45</v>
       </c>
       <c r="J171" s="22" t="s">
-        <v>453</v>
+        <v>124</v>
       </c>
       <c r="K171" s="22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L171" s="23">
-        <v>90.740740740740804</v>
+        <v>77.7777777777778</v>
       </c>
       <c r="M171" s="23">
-        <v>96.7114017105947</v>
+        <v>87.557926018790496</v>
       </c>
       <c r="N171" s="23">
-        <v>97.548307984452805</v>
+        <v>95.027121423107502</v>
       </c>
       <c r="O171" s="23">
-        <v>78.417266187050402</v>
+        <v>48.920863309352498</v>
       </c>
       <c r="P171" s="23">
-        <v>74.993252244035304</v>
+        <v>77.736576561972797</v>
       </c>
       <c r="Q171" s="23">
-        <v>80.488116537333596</v>
+        <v>47.161247218243403</v>
       </c>
       <c r="R171" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A172" s="13"/>
       <c r="B172" s="19" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>565</v>
+        <v>466</v>
       </c>
       <c r="F172" s="22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H172" s="22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I172" s="22" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J172" s="22" t="s">
         <v>453</v>
       </c>
       <c r="K172" s="22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L172" s="23">
-        <v>88.8888888888889</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M172" s="23">
-        <v>96.149786188102894</v>
+        <v>96.7254008000113</v>
       </c>
       <c r="N172" s="23">
-        <v>97.625024852617102</v>
+        <v>97.534214600191106</v>
       </c>
       <c r="O172" s="23">
-        <v>89.208633093525194</v>
+        <v>77.697841726618705</v>
       </c>
       <c r="P172" s="23">
-        <v>98.871953848082498</v>
+        <v>74.6284133237058</v>
       </c>
       <c r="Q172" s="23">
-        <v>99.913565393278006</v>
+        <v>79.761634309150594</v>
       </c>
       <c r="R172" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A173" s="13"/>
       <c r="B173" s="19" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E173" s="21" t="s">
         <v>568</v>
@@ -12209,46 +12212,46 @@
         <v>25</v>
       </c>
       <c r="J173" s="22" t="s">
-        <v>62</v>
+        <v>453</v>
       </c>
       <c r="K173" s="22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L173" s="23">
-        <v>98.148148148148195</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="M173" s="23">
-        <v>99.992380036161904</v>
+        <v>96.164807928937705</v>
       </c>
       <c r="N173" s="23">
-        <v>99.955997604474703</v>
+        <v>97.533226471260306</v>
       </c>
       <c r="O173" s="23">
-        <v>58.9928057553957</v>
+        <v>88.489208633093497</v>
       </c>
       <c r="P173" s="23">
-        <v>78.780236732853794</v>
+        <v>98.865738314873298</v>
       </c>
       <c r="Q173" s="23">
-        <v>46.717028788169003</v>
+        <v>99.908988005939605</v>
       </c>
       <c r="R173" s="21" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A174" s="13"/>
       <c r="B174" s="19" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F174" s="22" t="s">
         <v>38</v>
@@ -12266,43 +12269,43 @@
         <v>124</v>
       </c>
       <c r="K174" s="22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L174" s="23">
-        <v>96.296296296296305</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M174" s="23">
-        <v>92.878177387148398</v>
+        <v>99.992517839640996</v>
       </c>
       <c r="N174" s="23">
-        <v>97.195068072955394</v>
+        <v>99.955697966479804</v>
       </c>
       <c r="O174" s="23">
-        <v>94.244604316546798</v>
+        <v>58.9928057553957</v>
       </c>
       <c r="P174" s="23">
-        <v>99.547027471988798</v>
+        <v>78.869855454961893</v>
       </c>
       <c r="Q174" s="23">
-        <v>99.997894242584493</v>
+        <v>47.250899348413199</v>
       </c>
       <c r="R174" s="21" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A175" s="13"/>
       <c r="B175" s="19" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C175" s="31" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F175" s="22" t="s">
         <v>38</v>
@@ -12317,49 +12320,49 @@
         <v>25</v>
       </c>
       <c r="J175" s="22" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="K175" s="22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L175" s="23">
-        <v>90.740740740740804</v>
+        <v>96.296296296296305</v>
       </c>
       <c r="M175" s="23">
-        <v>97.521245242256995</v>
+        <v>92.837284889669604</v>
       </c>
       <c r="N175" s="23">
-        <v>97.675982140329893</v>
+        <v>97.092339981866601</v>
       </c>
       <c r="O175" s="23">
-        <v>91.366906474820198</v>
+        <v>94.244604316546798</v>
       </c>
       <c r="P175" s="23">
-        <v>99.221983662026503</v>
+        <v>99.548671158477404</v>
       </c>
       <c r="Q175" s="23">
-        <v>99.354189731272498</v>
+        <v>99.9979269779178</v>
       </c>
       <c r="R175" s="21" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A176" s="13"/>
       <c r="B176" s="19" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F176" s="22" t="s">
-        <v>556</v>
+        <v>38</v>
       </c>
       <c r="G176" s="22" t="s">
         <v>33</v>
@@ -12371,157 +12374,157 @@
         <v>25</v>
       </c>
       <c r="J176" s="22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K176" s="22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L176" s="23">
+        <v>90.740740740740804</v>
+      </c>
+      <c r="M176" s="23">
+        <v>97.525675267402903</v>
+      </c>
+      <c r="N176" s="23">
+        <v>97.6299595675614</v>
+      </c>
+      <c r="O176" s="23">
+        <v>91.366906474820198</v>
+      </c>
+      <c r="P176" s="23">
+        <v>99.222886323054695</v>
+      </c>
+      <c r="Q176" s="23">
+        <v>99.360149288611197</v>
+      </c>
+      <c r="R176" s="21" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="13"/>
+      <c r="B177" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="E177" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="F177" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="G177" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H177" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I177" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J177" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K177" s="22">
+        <v>2019</v>
+      </c>
+      <c r="L177" s="23">
         <v>77.7777777777778</v>
       </c>
-      <c r="M176" s="23">
-        <v>87.589860091659602</v>
-      </c>
-      <c r="N176" s="23">
-        <v>95.096496102147995</v>
-      </c>
-      <c r="O176" s="23">
-        <v>49.640287769784202</v>
-      </c>
-      <c r="P176" s="23">
-        <v>77.653192512657597</v>
-      </c>
-      <c r="Q176" s="23">
-        <v>46.6319777341118</v>
-      </c>
-      <c r="R176" s="21" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A177" s="13"/>
-      <c r="B177" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="C177" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="D177" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="E177" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="F177" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G177" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H177" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I177" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="J177" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="K177" s="26">
-        <v>2018</v>
-      </c>
-      <c r="L177" s="27">
-        <v>90.740740740740804</v>
-      </c>
-      <c r="M177" s="27">
-        <v>96.7114017105947</v>
-      </c>
-      <c r="N177" s="27">
-        <v>97.548307984452805</v>
-      </c>
-      <c r="O177" s="27">
-        <v>78.417266187050402</v>
-      </c>
-      <c r="P177" s="27">
-        <v>74.993252244035304</v>
-      </c>
-      <c r="Q177" s="27">
-        <v>80.488116537333596</v>
-      </c>
-      <c r="R177" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="M177" s="23">
+        <v>87.557926018790496</v>
+      </c>
+      <c r="N177" s="23">
+        <v>95.027121423107502</v>
+      </c>
+      <c r="O177" s="23">
+        <v>48.920863309352498</v>
+      </c>
+      <c r="P177" s="23">
+        <v>77.736576561972797</v>
+      </c>
+      <c r="Q177" s="23">
+        <v>47.161247218243403</v>
+      </c>
+      <c r="R177" s="21" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A178" s="13"/>
       <c r="B178" s="19" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="D178" s="21" t="s">
         <v>598</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="F178" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="G178" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H178" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="F178" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G178" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H178" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I178" s="22" t="s">
+      <c r="I178" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J178" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="K178" s="22">
-        <v>2018</v>
+      <c r="J178" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="K178" s="26">
+        <v>2019</v>
       </c>
       <c r="L178" s="23">
-        <v>100</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M178" s="23">
-        <v>100</v>
+        <v>96.7254008000113</v>
       </c>
       <c r="N178" s="23">
-        <v>100</v>
+        <v>97.534214600191106</v>
       </c>
       <c r="O178" s="23">
-        <v>100</v>
+        <v>77.697841726618705</v>
       </c>
       <c r="P178" s="23">
-        <v>100</v>
+        <v>74.6284133237058</v>
       </c>
       <c r="Q178" s="23">
-        <v>100</v>
+        <v>79.761634309150594</v>
       </c>
       <c r="R178" s="21" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A179" s="13"/>
       <c r="B179" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="C179" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="E179" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="C179" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="D179" s="21" t="s">
+      <c r="F179" s="22" t="s">
         <v>603</v>
-      </c>
-      <c r="E179" s="21" t="s">
-        <v>604</v>
-      </c>
-      <c r="F179" s="22" t="s">
-        <v>600</v>
       </c>
       <c r="G179" s="22" t="s">
         <v>23</v>
@@ -12548,16 +12551,16 @@
         <v>100</v>
       </c>
       <c r="O179" s="23">
-        <v>99.280575539568403</v>
+        <v>100</v>
       </c>
       <c r="P179" s="23">
-        <v>99.999387216423898</v>
+        <v>100</v>
       </c>
       <c r="Q179" s="23">
         <v>100</v>
       </c>
       <c r="R179" s="21" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="180" spans="1:18" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
@@ -12566,7 +12569,7 @@
         <v>605</v>
       </c>
       <c r="C180" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D180" s="21" t="s">
         <v>606</v>
@@ -12575,7 +12578,7 @@
         <v>607</v>
       </c>
       <c r="F180" s="22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G180" s="22" t="s">
         <v>23</v>
@@ -12611,16 +12614,16 @@
         <v>100</v>
       </c>
       <c r="R180" s="21" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A181" s="13"/>
       <c r="B181" s="19" t="s">
         <v>608</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D181" s="21" t="s">
         <v>609</v>
@@ -12629,7 +12632,7 @@
         <v>610</v>
       </c>
       <c r="F181" s="22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G181" s="22" t="s">
         <v>23</v>
@@ -12656,16 +12659,16 @@
         <v>100</v>
       </c>
       <c r="O181" s="23">
-        <v>100</v>
+        <v>99.280575539568403</v>
       </c>
       <c r="P181" s="23">
-        <v>100</v>
+        <v>99.999387216423898</v>
       </c>
       <c r="Q181" s="23">
         <v>100</v>
       </c>
       <c r="R181" s="21" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="182" spans="1:18" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
@@ -12674,7 +12677,7 @@
         <v>611</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D182" s="21" t="s">
         <v>612</v>
@@ -12683,7 +12686,7 @@
         <v>613</v>
       </c>
       <c r="F182" s="22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G182" s="22" t="s">
         <v>23</v>
@@ -12701,34 +12704,34 @@
         <v>2018</v>
       </c>
       <c r="L182" s="23">
-        <v>79.629629629629704</v>
+        <v>100</v>
       </c>
       <c r="M182" s="23">
-        <v>92.631647141770898</v>
+        <v>100</v>
       </c>
       <c r="N182" s="23">
-        <v>86.183826823719997</v>
+        <v>100</v>
       </c>
       <c r="O182" s="23">
-        <v>79.136690647481998</v>
+        <v>100</v>
       </c>
       <c r="P182" s="23">
-        <v>98.119237604881306</v>
+        <v>100</v>
       </c>
       <c r="Q182" s="23">
-        <v>97.865542171591699</v>
+        <v>100</v>
       </c>
       <c r="R182" s="21" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A183" s="13"/>
       <c r="B183" s="19" t="s">
         <v>614</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D183" s="21" t="s">
         <v>615</v>
@@ -12737,10 +12740,10 @@
         <v>616</v>
       </c>
       <c r="F183" s="22" t="s">
-        <v>38</v>
+        <v>603</v>
       </c>
       <c r="G183" s="22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H183" s="22" t="s">
         <v>24</v>
@@ -12755,25 +12758,25 @@
         <v>2018</v>
       </c>
       <c r="L183" s="23">
-        <v>66.6666666666667</v>
+        <v>79.629629629629704</v>
       </c>
       <c r="M183" s="23">
-        <v>76.171813592250402</v>
+        <v>92.631647141770898</v>
       </c>
       <c r="N183" s="23">
-        <v>85.858403657516206</v>
+        <v>86.183826823719997</v>
       </c>
       <c r="O183" s="23">
-        <v>76.978417266187094</v>
+        <v>79.136690647481998</v>
       </c>
       <c r="P183" s="23">
-        <v>72.7425302162858</v>
+        <v>98.119237604881306</v>
       </c>
       <c r="Q183" s="23">
-        <v>80.374784695925101</v>
+        <v>97.865542171591699</v>
       </c>
       <c r="R183" s="21" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="184" spans="1:18" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
@@ -12782,7 +12785,7 @@
         <v>617</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D184" s="21" t="s">
         <v>618</v>
@@ -12809,25 +12812,25 @@
         <v>2018</v>
       </c>
       <c r="L184" s="23">
-        <v>62.962962962962997</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="M184" s="23">
-        <v>76.061465616533496</v>
+        <v>76.171813592250402</v>
       </c>
       <c r="N184" s="23">
-        <v>85.378954217727795</v>
+        <v>85.858403657516206</v>
       </c>
       <c r="O184" s="23">
-        <v>70.503597122302196</v>
+        <v>76.978417266187094</v>
       </c>
       <c r="P184" s="23">
-        <v>67.436208842395203</v>
+        <v>72.7425302162858</v>
       </c>
       <c r="Q184" s="23">
-        <v>62.773000731942602</v>
+        <v>80.374784695925101</v>
       </c>
       <c r="R184" s="21" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="185" spans="1:18" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
@@ -12836,7 +12839,7 @@
         <v>620</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D185" s="21" t="s">
         <v>621</v>
@@ -12863,25 +12866,25 @@
         <v>2018</v>
       </c>
       <c r="L185" s="23">
-        <v>66.6666666666667</v>
+        <v>62.962962962962997</v>
       </c>
       <c r="M185" s="23">
-        <v>76.171813592250402</v>
+        <v>76.061465616533496</v>
       </c>
       <c r="N185" s="23">
-        <v>85.858403657516206</v>
+        <v>85.378954217727795</v>
       </c>
       <c r="O185" s="23">
-        <v>76.978417266187094</v>
+        <v>70.503597122302196</v>
       </c>
       <c r="P185" s="23">
-        <v>72.7425302162858</v>
+        <v>67.436208842395203</v>
       </c>
       <c r="Q185" s="23">
-        <v>80.374784695925101</v>
+        <v>62.773000731942602</v>
       </c>
       <c r="R185" s="21" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="186" spans="1:18" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
@@ -12890,7 +12893,7 @@
         <v>623</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D186" s="21" t="s">
         <v>624</v>
@@ -12935,7 +12938,7 @@
         <v>80.374784695925101</v>
       </c>
       <c r="R186" s="21" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="187" spans="1:18" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
@@ -12944,7 +12947,7 @@
         <v>626</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D187" s="21" t="s">
         <v>627</v>
@@ -12971,25 +12974,25 @@
         <v>2018</v>
       </c>
       <c r="L187" s="23">
-        <v>59.259259259259302</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="M187" s="23">
-        <v>73.632546304410099</v>
+        <v>76.171813592250402</v>
       </c>
       <c r="N187" s="23">
-        <v>84.199219931553003</v>
+        <v>85.858403657516206</v>
       </c>
       <c r="O187" s="23">
-        <v>73.381294964028797</v>
+        <v>76.978417266187094</v>
       </c>
       <c r="P187" s="23">
-        <v>72.626659657076502</v>
+        <v>72.7425302162858</v>
       </c>
       <c r="Q187" s="23">
-        <v>80.214758770103501</v>
+        <v>80.374784695925101</v>
       </c>
       <c r="R187" s="21" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="188" spans="1:18" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
@@ -12998,7 +13001,7 @@
         <v>629</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D188" s="21" t="s">
         <v>630</v>
@@ -13025,25 +13028,25 @@
         <v>2018</v>
       </c>
       <c r="L188" s="23">
-        <v>53.703703703703702</v>
+        <v>59.259259259259302</v>
       </c>
       <c r="M188" s="23">
-        <v>72.407201905062905</v>
+        <v>73.632546304410099</v>
       </c>
       <c r="N188" s="23">
-        <v>82.899591314801</v>
+        <v>84.199219931553003</v>
       </c>
       <c r="O188" s="23">
-        <v>65.467625899280605</v>
+        <v>73.381294964028797</v>
       </c>
       <c r="P188" s="23">
-        <v>66.751675488863398</v>
+        <v>72.626659657076502</v>
       </c>
       <c r="Q188" s="23">
-        <v>62.4940774363385</v>
+        <v>80.214758770103501</v>
       </c>
       <c r="R188" s="21" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="189" spans="1:18" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
@@ -13052,19 +13055,19 @@
         <v>632</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D189" s="21" t="s">
         <v>633</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F189" s="22" t="s">
-        <v>634</v>
+        <v>38</v>
       </c>
       <c r="G189" s="22" t="s">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="H189" s="22" t="s">
         <v>24</v>
@@ -13073,51 +13076,51 @@
         <v>25</v>
       </c>
       <c r="J189" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K189" s="22">
+        <v>2018</v>
+      </c>
+      <c r="L189" s="23">
+        <v>53.703703703703702</v>
+      </c>
+      <c r="M189" s="23">
+        <v>72.407201905062905</v>
+      </c>
+      <c r="N189" s="23">
+        <v>82.899591314801</v>
+      </c>
+      <c r="O189" s="23">
+        <v>65.467625899280605</v>
+      </c>
+      <c r="P189" s="23">
+        <v>66.751675488863398</v>
+      </c>
+      <c r="Q189" s="23">
+        <v>62.4940774363385</v>
+      </c>
+      <c r="R189" s="21" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="B190" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="K189" s="22">
-        <v>2017</v>
-      </c>
-      <c r="L189" s="23">
-        <v>83.3333333333334</v>
-      </c>
-      <c r="M189" s="23">
-        <v>89.546234598026899</v>
-      </c>
-      <c r="N189" s="23">
-        <v>96.191660711709801</v>
-      </c>
-      <c r="O189" s="23">
-        <v>87.7697841726619</v>
-      </c>
-      <c r="P189" s="23">
-        <v>99.406994549210495</v>
-      </c>
-      <c r="Q189" s="23">
-        <v>99.188230508835801</v>
-      </c>
-      <c r="R189" s="21" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="B190" s="19" t="s">
+      <c r="C190" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="D190" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="C190" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="D190" s="21" t="s">
+      <c r="E190" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="F190" s="22" t="s">
         <v>637</v>
       </c>
-      <c r="E190" s="21" t="s">
-        <v>638</v>
-      </c>
-      <c r="F190" s="22" t="s">
-        <v>639</v>
-      </c>
       <c r="G190" s="22" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="H190" s="22" t="s">
         <v>24</v>
@@ -13126,45 +13129,45 @@
         <v>25</v>
       </c>
       <c r="J190" s="22" t="s">
-        <v>62</v>
+        <v>638</v>
       </c>
       <c r="K190" s="22">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="L190" s="23">
-        <v>74.074074074074105</v>
+        <v>83.3333333333334</v>
       </c>
       <c r="M190" s="23">
-        <v>94.717631980251298</v>
+        <v>89.546234598026899</v>
       </c>
       <c r="N190" s="23">
-        <v>97.577145545749701</v>
+        <v>96.191660711709801</v>
       </c>
       <c r="O190" s="23">
-        <v>87.050359712230204</v>
+        <v>87.7697841726619</v>
       </c>
       <c r="P190" s="23">
-        <v>99.167936537143305</v>
+        <v>99.406994549210495</v>
       </c>
       <c r="Q190" s="23">
-        <v>99.853199946495096</v>
+        <v>99.188230508835801</v>
       </c>
       <c r="R190" s="21" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="191" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="B191" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="C191" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="D191" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="C191" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="D191" s="21" t="s">
+      <c r="E191" s="21" t="s">
         <v>641</v>
-      </c>
-      <c r="E191" s="21" t="s">
-        <v>638</v>
       </c>
       <c r="F191" s="22" t="s">
         <v>642</v>
@@ -13173,7 +13176,7 @@
         <v>50</v>
       </c>
       <c r="H191" s="22" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I191" s="22" t="s">
         <v>25</v>
@@ -13194,39 +13197,39 @@
         <v>97.577145545749701</v>
       </c>
       <c r="O191" s="23">
-        <v>80.575539568345306</v>
+        <v>87.050359712230204</v>
       </c>
       <c r="P191" s="23">
-        <v>98.547028723156004</v>
+        <v>99.167936537143305</v>
       </c>
       <c r="Q191" s="23">
-        <v>97.763984930637804</v>
+        <v>99.853199946495096</v>
       </c>
       <c r="R191" s="21" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="B192" s="19" t="s">
         <v>643</v>
       </c>
       <c r="C192" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D192" s="21" t="s">
         <v>644</v>
       </c>
       <c r="E192" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="F192" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="F192" s="22" t="s">
-        <v>639</v>
-      </c>
       <c r="G192" s="22" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H192" s="22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I192" s="22" t="s">
         <v>25</v>
@@ -13238,33 +13241,33 @@
         <v>2018</v>
       </c>
       <c r="L192" s="23">
-        <v>98.148148148148195</v>
+        <v>74.074074074074105</v>
       </c>
       <c r="M192" s="23">
-        <v>99.138606464146307</v>
+        <v>94.717631980251298</v>
       </c>
       <c r="N192" s="23">
-        <v>99.821825161144304</v>
+        <v>97.577145545749701</v>
       </c>
       <c r="O192" s="23">
-        <v>92.086330935251794</v>
+        <v>80.575539568345306</v>
       </c>
       <c r="P192" s="23">
-        <v>98.960950167480505</v>
+        <v>98.547028723156004</v>
       </c>
       <c r="Q192" s="23">
-        <v>99.512887922378496</v>
+        <v>97.763984930637804</v>
       </c>
       <c r="R192" s="21" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="193" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="193" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B193" s="19" t="s">
         <v>646</v>
       </c>
       <c r="C193" s="31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D193" s="21" t="s">
         <v>647</v>
@@ -13273,10 +13276,10 @@
         <v>648</v>
       </c>
       <c r="F193" s="22" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="G193" s="22" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H193" s="22" t="s">
         <v>24</v>
@@ -13285,51 +13288,85 @@
         <v>25</v>
       </c>
       <c r="J193" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K193" s="22">
+        <v>2018</v>
+      </c>
+      <c r="L193" s="23">
+        <v>98.148148148148195</v>
+      </c>
+      <c r="M193" s="23">
+        <v>99.138606464146307</v>
+      </c>
+      <c r="N193" s="23">
+        <v>99.821825161144304</v>
+      </c>
+      <c r="O193" s="23">
+        <v>92.086330935251794</v>
+      </c>
+      <c r="P193" s="23">
+        <v>98.960950167480505</v>
+      </c>
+      <c r="Q193" s="23">
+        <v>99.512887922378496</v>
+      </c>
+      <c r="R193" s="21" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="194" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+      <c r="B194" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="C194" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="D194" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="K193" s="22">
+      <c r="E194" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="F194" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="G194" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H194" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I194" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J194" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="K194" s="22">
         <v>2017</v>
       </c>
-      <c r="L193" s="23">
-        <v>100</v>
-      </c>
-      <c r="M193" s="23">
-        <v>100</v>
-      </c>
-      <c r="N193" s="23">
-        <v>100</v>
-      </c>
-      <c r="O193" s="23">
-        <v>100</v>
-      </c>
-      <c r="P193" s="23">
-        <v>100</v>
-      </c>
-      <c r="Q193" s="23">
-        <v>100</v>
-      </c>
-      <c r="R193" s="21" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B194"/>
-      <c r="C194" s="20"/>
-      <c r="D194" s="21"/>
-      <c r="E194" s="21"/>
-      <c r="F194" s="22"/>
-      <c r="G194" s="22"/>
-      <c r="H194" s="22"/>
-      <c r="I194" s="22"/>
-      <c r="J194" s="22"/>
-      <c r="K194" s="22"/>
-      <c r="L194" s="23"/>
-      <c r="M194" s="23"/>
-      <c r="N194" s="23"/>
-      <c r="O194" s="23"/>
-      <c r="P194" s="23"/>
-      <c r="Q194" s="23"/>
-      <c r="R194" s="21"/>
+      <c r="L194" s="23">
+        <v>100</v>
+      </c>
+      <c r="M194" s="23">
+        <v>100</v>
+      </c>
+      <c r="N194" s="23">
+        <v>100</v>
+      </c>
+      <c r="O194" s="23">
+        <v>100</v>
+      </c>
+      <c r="P194" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q194" s="23">
+        <v>100</v>
+      </c>
+      <c r="R194" s="21" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="195" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B195"/>
@@ -13350,10 +13387,8 @@
       <c r="Q195" s="23"/>
       <c r="R195" s="21"/>
     </row>
-    <row r="196" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B196" s="28" t="s">
-        <v>651</v>
-      </c>
+    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B196"/>
       <c r="C196" s="20"/>
       <c r="D196" s="21"/>
       <c r="E196" s="21"/>
@@ -13372,7 +13407,9 @@
       <c r="R196" s="21"/>
     </row>
     <row r="197" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B197" s="28"/>
+      <c r="B197" s="28" t="s">
+        <v>654</v>
+      </c>
       <c r="C197" s="20"/>
       <c r="D197" s="21"/>
       <c r="E197" s="21"/>
@@ -13390,30 +13427,28 @@
       <c r="Q197" s="23"/>
       <c r="R197" s="21"/>
     </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B198" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="C198" s="30"/>
-      <c r="D198"/>
-      <c r="E198"/>
-      <c r="F198"/>
-      <c r="G198"/>
-      <c r="H198"/>
-      <c r="I198"/>
-      <c r="J198"/>
-      <c r="K198"/>
-      <c r="L198"/>
-      <c r="M198"/>
-      <c r="N198"/>
-      <c r="O198"/>
-      <c r="P198"/>
-      <c r="Q198"/>
-      <c r="R198"/>
+    <row r="198" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B198" s="28"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="22"/>
+      <c r="I198" s="22"/>
+      <c r="J198" s="22"/>
+      <c r="K198" s="22"/>
+      <c r="L198" s="23"/>
+      <c r="M198" s="23"/>
+      <c r="N198" s="23"/>
+      <c r="O198" s="23"/>
+      <c r="P198" s="23"/>
+      <c r="Q198" s="23"/>
+      <c r="R198" s="21"/>
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="29" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C199" s="30"/>
       <c r="D199"/>
@@ -13434,7 +13469,7 @@
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="29" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C200" s="30"/>
       <c r="D200"/>
@@ -13454,7 +13489,9 @@
       <c r="R200"/>
     </row>
     <row r="201" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B201"/>
+      <c r="B201" s="29" t="s">
+        <v>657</v>
+      </c>
       <c r="C201" s="30"/>
       <c r="D201"/>
       <c r="E201"/>
@@ -13529,12 +13566,31 @@
       <c r="Q204"/>
       <c r="R204"/>
     </row>
+    <row r="205" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B205"/>
+      <c r="C205" s="30"/>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205"/>
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205"/>
+      <c r="K205"/>
+      <c r="L205"/>
+      <c r="M205"/>
+      <c r="N205"/>
+      <c r="O205"/>
+      <c r="P205"/>
+      <c r="Q205"/>
+      <c r="R205"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B198" r:id="rId1"/>
-    <hyperlink ref="B199" r:id="rId2"/>
-    <hyperlink ref="B200" r:id="rId3"/>
-    <hyperlink ref="B196" r:id="rId4"/>
+    <hyperlink ref="B199" r:id="rId1"/>
+    <hyperlink ref="B200" r:id="rId2"/>
+    <hyperlink ref="B201" r:id="rId3"/>
+    <hyperlink ref="B197" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/AfDD_2021_List_of_indicators.xlsx
+++ b/AfDD_2021_List_of_indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_List_of_indicators.xlsx
+++ b/AfDD_2021_List_of_indicators.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Markley_S\BACKUP\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -3116,7 +3116,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:R205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -13259,6 +13258,7 @@
       </c>
     </row>
     <row r="190" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A190" s="13"/>
       <c r="B190" s="21" t="s">
         <v>634</v>
       </c>
@@ -13312,6 +13312,7 @@
       </c>
     </row>
     <row r="191" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="13"/>
       <c r="B191" s="19" t="s">
         <v>638</v>
       </c>
@@ -13365,6 +13366,7 @@
       </c>
     </row>
     <row r="192" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="13"/>
       <c r="B192" s="21" t="s">
         <v>642</v>
       </c>
@@ -13417,7 +13419,8 @@
         <v>603</v>
       </c>
     </row>
-    <row r="193" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A193" s="13"/>
       <c r="B193" s="19" t="s">
         <v>645</v>
       </c>
@@ -13470,7 +13473,8 @@
         <v>603</v>
       </c>
     </row>
-    <row r="194" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+      <c r="A194" s="13"/>
       <c r="B194" s="21" t="s">
         <v>648</v>
       </c>
@@ -13523,7 +13527,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B195"/>
       <c r="C195" s="30"/>
       <c r="D195" s="31"/>
@@ -13542,7 +13546,7 @@
       <c r="Q195" s="33"/>
       <c r="R195" s="31"/>
     </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B196"/>
       <c r="C196" s="30"/>
       <c r="D196" s="31"/>
@@ -13561,7 +13565,7 @@
       <c r="Q196" s="33"/>
       <c r="R196" s="31"/>
     </row>
-    <row r="197" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B197" s="34" t="s">
         <v>653</v>
       </c>
@@ -13582,7 +13586,7 @@
       <c r="Q197" s="33"/>
       <c r="R197" s="31"/>
     </row>
-    <row r="198" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B198" s="34"/>
       <c r="C198" s="30"/>
       <c r="D198" s="31"/>
@@ -13601,7 +13605,7 @@
       <c r="Q198" s="33"/>
       <c r="R198" s="31"/>
     </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B199" s="35" t="s">
         <v>654</v>
       </c>
@@ -13622,7 +13626,7 @@
       <c r="Q199"/>
       <c r="R199"/>
     </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B200" s="35" t="s">
         <v>655</v>
       </c>
@@ -13643,7 +13647,7 @@
       <c r="Q200"/>
       <c r="R200"/>
     </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B201" s="35" t="s">
         <v>656</v>
       </c>
@@ -13664,7 +13668,7 @@
       <c r="Q201"/>
       <c r="R201"/>
     </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B202"/>
       <c r="C202" s="36"/>
       <c r="D202"/>
@@ -13683,7 +13687,7 @@
       <c r="Q202"/>
       <c r="R202"/>
     </row>
-    <row r="203" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B203"/>
       <c r="C203" s="36"/>
       <c r="D203"/>
@@ -13702,7 +13706,7 @@
       <c r="Q203"/>
       <c r="R203"/>
     </row>
-    <row r="204" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B204"/>
       <c r="C204" s="36"/>
       <c r="D204"/>
@@ -13721,7 +13725,7 @@
       <c r="Q204"/>
       <c r="R204"/>
     </row>
-    <row r="205" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B205"/>
       <c r="C205" s="36"/>
       <c r="D205"/>

--- a/AfDD_2021_List_of_indicators.xlsx
+++ b/AfDD_2021_List_of_indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_List_of_indicators.xlsx
+++ b/AfDD_2021_List_of_indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,8 @@
     <t>2000-2025</t>
   </si>
   <si>
-    <t>World Population Prospects: the 2019 Revision, UN</t>
+    <t>World Population Prospects: the 2019
+Revision, UN</t>
   </si>
   <si>
     <t>PPPGDP</t>
@@ -127,7 +128,8 @@
     <t>Millions</t>
   </si>
   <si>
-    <t>IMF World Economic Outlook Database October 2020</t>
+    <t>IMF World Economic Outlook Database
+October 2020</t>
   </si>
   <si>
     <t>NGDPD</t>
@@ -160,7 +162,8 @@
     <t>Mean</t>
   </si>
   <si>
-    <t>GDP in PPP dollars</t>
+    <t>GDP in PPP
+dollars</t>
   </si>
   <si>
     <t>1989-2025</t>
@@ -193,7 +196,8 @@
     <t>2000-2020</t>
   </si>
   <si>
-    <t>International Labour Organization - ILOSTAT (retrieved 25/10/2020)</t>
+    <t>International Labour Organization -
+ILOSTAT (retrieved 25/10/2020)</t>
   </si>
   <si>
     <t>GINI</t>
@@ -214,10 +218,13 @@
     <t>2000-2018</t>
   </si>
   <si>
-    <t>2010-19 maximum</t>
-  </si>
-  <si>
-    <t>World Development Indicators (data from central banks, national agencies, and WB country desks - updated 16/10/2020)</t>
+    <t>2010-19
+maximum</t>
+  </si>
+  <si>
+    <t>World Development Indicators (data from
+central banks, national agencies, and WB
+country desks - updated 16/10/2020)</t>
   </si>
   <si>
     <t>PovHC190</t>
@@ -241,7 +248,9 @@
     <t>From the United Nations Development Programme.  From their documentation: "The Human Development Index (HDI) is a summary measure of average achievement in key dimensions of human development: a long and healthy life, being knowledgeable and have a decent standard of living. The HDI is the geometric mean of normalized indices for each of the three dimensions." For more information, see:</t>
   </si>
   <si>
-    <t>United Nations Development Programme Human Development Data Online (2019 edition)</t>
+    <t>United Nations Development Programme
+Human Development Data Online (2019
+edition)</t>
   </si>
   <si>
     <t>IHDI</t>
@@ -283,10 +292,14 @@
     <t>Author's calculations based on Real GDP Growth estimates from the World Economic Outlook, and population growth estimates from World Population Prospects. Figures up to 2015 are estimates, figures for years after 2016 are projections under the medium fertility variant scenario. See notes on population growth and Real GDP growth form more information.</t>
   </si>
   <si>
-    <t>Population and GDP(PPP)</t>
-  </si>
-  <si>
-    <t>Author's calculations based IMF World Economic Outlook Database and UN World Population Prospects</t>
+    <t>Population
+and
+GDP(PPP)</t>
+  </si>
+  <si>
+    <t>Author's calculations based IMF World
+Economic Outlook Database and UN World
+Population Prospects</t>
   </si>
   <si>
     <t>PopUrban</t>
@@ -301,7 +314,8 @@
     <t>United Nations Department of Economic and Social Affairs Population Division estimates. Urban populations are as of 1 July of the year indicated. Figures up to 2020 are estimates, figures for years after 2020 are projections under the medium fertility variant scenario. Annual figures are interpolations of World Urbanization Prospects estimates produced on a five-year basis. For more information, see:</t>
   </si>
   <si>
-    <t>World Urbanization Prospects: The 2018 Revision, UN</t>
+    <t>World Urbanization Prospects: The 2018
+Revision, UN</t>
   </si>
   <si>
     <t>PopRural</t>
@@ -402,7 +416,8 @@
     <t>2000-2019</t>
   </si>
   <si>
-    <t>UNESCO Institute for Statistics (UIS) Database (September 2020 release)</t>
+    <t>UNESCO Institute for Statistics (UIS)
+Database (September 2020 release)</t>
   </si>
   <si>
     <t>LitRt15T24F</t>
@@ -480,7 +495,8 @@
     <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having no education, or incomplete primary education.  The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:</t>
   </si>
   <si>
-    <t>Ratio of sums</t>
+    <t>Ratio of
+sums</t>
   </si>
   <si>
     <t>Self-weighting</t>
@@ -489,7 +505,8 @@
     <t>2000-2040</t>
   </si>
   <si>
-    <t>Wittgenstein Centre Human Capital Data Explorer, 2018</t>
+    <t>Wittgenstein Centre Human Capital Data
+Explorer, 2018</t>
   </si>
   <si>
     <t>WittMedPrim15PL</t>
@@ -685,10 +702,13 @@
     <t>Agriculture, hunting, forestry, fishing value added as a % of GDP (International Standard Industrial Classification categories A-B). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see:</t>
   </si>
   <si>
-    <t>GDP in US dollars</t>
-  </si>
-  <si>
-    <t>United Nations Statistics Division National Accounts (Analysis of Main Aggregates dataset uploaded in December 2019)</t>
+    <t>GDP in US
+dollars</t>
+  </si>
+  <si>
+    <t>United Nations Statistics Division National
+Accounts (Analysis of Main Aggregates
+dataset uploaded in December 2019)</t>
   </si>
   <si>
     <t>MnIndPerGDP</t>
@@ -904,7 +924,9 @@
     <t>2015-2019</t>
   </si>
   <si>
-    <t>Social Institutions and Gender Index, OECD Development Centre (updated with new methodology December 2018)</t>
+    <t>Social Institutions and Gender Index, OECD
+Development Centre (updated with new
+methodology December 2018)</t>
   </si>
   <si>
     <t>SIGIFAM</t>
@@ -955,7 +977,8 @@
     <t>From data presented on the International Telecommunications Union (ITU) statistics data. For more information, see:</t>
   </si>
   <si>
-    <t>International Telecommunication Union - ICT Indicators Online Database (July 2020)</t>
+    <t>International Telecommunication Union -
+ICT Indicators Online Database (July 2020)</t>
   </si>
   <si>
     <t>IntntUsePct</t>
@@ -1009,7 +1032,8 @@
     <t>2020-2020</t>
   </si>
   <si>
-    <t>GSMA Intelligence (data updated in june 2020)</t>
+    <t>GSMA Intelligence (data updated in june
+2020)</t>
   </si>
   <si>
     <t>IntntAccss</t>
@@ -1024,7 +1048,8 @@
     <t>2018-2018</t>
   </si>
   <si>
-    <t>Gallup World Poll (accessed 15 December 2019)</t>
+    <t>Gallup World Poll (accessed 15 December
+2019)</t>
   </si>
   <si>
     <t>OwnWSitLrgFm</t>
@@ -1042,7 +1067,8 @@
     <t>2006-2019</t>
   </si>
   <si>
-    <t>Author's calculations based on World Bank Enterprise Survey (retrieved April 2020)</t>
+    <t>Author's calculations based on World Bank
+Enterprise Survey (retrieved April 2020)</t>
   </si>
   <si>
     <t>OwnWSitMedFm</t>
@@ -1105,7 +1131,8 @@
     <t>2005-2019</t>
   </si>
   <si>
-    <t>UNCTADStat Online Data Centre (retrieved 18/11/2020)</t>
+    <t>UNCTADStat Online Data Centre (retrieved
+18/11/2020)</t>
   </si>
   <si>
     <t>ExpICTSrvPrp</t>
@@ -1219,7 +1246,8 @@
     <t>Global Hunger Index</t>
   </si>
   <si>
-    <t>Global Hunger Index (GHI) - Welthungerhilfe and Concern Worldwide (2020 edition)</t>
+    <t>Global Hunger Index (GHI) - Welthungerhilfe
+and Concern Worldwide (2020 edition)</t>
   </si>
   <si>
     <t>LifeLadder</t>
@@ -1234,7 +1262,8 @@
     <t>From World Happiness Report. Calculated from the Dec 22, 2017 release of the Gallup World Poll (GWP), which covers the years from 2005 to 2017. Generally the national average response to the question of life evaluations. The English wording of the question is “Please imagine a ladder, with steps numbered from 0 at the bottom to 10 at the top. The top of the ladder represents the best possible life for you and the bottom of the ladder represents the worst possible life for you. On which step of the ladder would you say you personally feel you stand at this time?” This measure is also referred to as Cantril life ladder, or just life ladder. For more information, see:</t>
   </si>
   <si>
-    <t>World Happiness Report Online Dataset 2020</t>
+    <t>World Happiness Report Online Dataset
+2020</t>
   </si>
   <si>
     <t>NegativeAffect</t>
@@ -1291,10 +1320,13 @@
     <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in total private consumption divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage.</t>
   </si>
   <si>
-    <t>National currency</t>
-  </si>
-  <si>
-    <t>Growth decomposition compiled from various sources and calculated by the OECD Development Centre (2017)</t>
+    <t>National
+currency</t>
+  </si>
+  <si>
+    <t>Growth decomposition compiled from
+various sources and calculated by the
+OECD Development Centre (2017)</t>
   </si>
   <si>
     <t>GrthDCmpNCG</t>
@@ -1448,7 +1480,9 @@
 Total US dollar value of export goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "unprocessed" within the WTO Multilateral Trade Negotiations (MTN).  Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris:</t>
   </si>
   <si>
-    <t>Author's calculations based on COMTRADE WITS Online Database (retrieved 27/10/2020)</t>
+    <t>Author's calculations based on COMTRADE
+WITS Online Database (retrieved
+27/10/2020)</t>
   </si>
   <si>
     <t>ExpSemiProc</t>
@@ -1532,7 +1566,7 @@
     <t>Pooled data</t>
   </si>
   <si>
-    <t>..</t>
+    <t>.</t>
   </si>
   <si>
     <t>ExpProdPct1</t>
@@ -1746,7 +1780,9 @@
     <t>Net ODA reported by the OECD Development Assessment Committtee, from all donors, in US dollars at current prices as a % of US dollar GDP according to the World Economic Outlook.</t>
   </si>
   <si>
-    <t>Official Development Assistance (ODA) reported by OECD Development Assistance Committee (last update 21/01/2021)</t>
+    <t>Official Development Assistance (ODA)
+reported by OECD Development Assistance
+Committee (last update 21/01/2021)</t>
   </si>
   <si>
     <t>UNCTADFDIPGD</t>
@@ -1758,7 +1794,8 @@
     <t>Inward flows of foreign direct investment (FDI) in millions of dollars. These figures correspond to the definition of FDI are contained in the Balance of Payments Manual: Fifth Edition (BPM5) (Washington, D.C., International Monetary Fund, 1993) and the Detailed Benchmark Definition of Foreign Direct Investment: Third Edition (BD3) (Paris, Organisation for Economic Co-operation and Development, 1996).  "FDI refers to an investment made to acquire lasting interest in enterprises operating outside of the economy of the investor. Further, in cases of FDI, the investor´s purpose is to gain an effective voice in the management of the enterprise. The foreign entity or group of associated entities that makes the investment is termed the 'direct investor'. The unincorporated or incorporated enterprise-a branch or subsidiary, respectively, in which direct investment is made-is referred to as a 'direct investment enterprise'. Some degree of equity ownership is almost always considered to be associated with an effective voice in the management of an enterprise; the BPM5 suggests a threshold of 10 per cent of equity ownership to qualify an investor as a foreign direct investor." For more information, see:</t>
   </si>
   <si>
-    <t>UNCTADStat Online Data Centre, FDI Online Database (updated 20/01/2020)</t>
+    <t>UNCTADStat Online Data Centre, FDI
+Online Database (updated 20/01/2020)</t>
   </si>
   <si>
     <t>RemitPGD</t>
@@ -1770,7 +1807,8 @@
     <t>World Bank staff calculation based on data from IMF Balance of Payments Statistics database and data releases from central banks, national statistical agencies, and World Bank country desks. See Migration and Development Brief 28, Appendix A for details.  All numbers are in current (nominal) US $. For a discussion of the definition of remittances, see Dilip Ratha, 2003, "Workers' Remittances: An Important and Stable Source of External Development Finance", Global Development Finance 2003, World Bank. Data since 2005 are based on IMF BOP Statistics that use the definitions of IMF BPM6. GDP data is from WDI. For latest data and analysis on migration and remittances, please visit:</t>
   </si>
   <si>
-    <t>World Bank Migration and Remittances Data (October 2020)</t>
+    <t>World Bank Migration and Remittances Data
+(October 2020)</t>
   </si>
   <si>
     <t>TotalFinInflowsPGD</t>
@@ -1782,7 +1820,10 @@
     <t>Sum of portfolio investment inflows, net official development assistance inflows, foreign direct investment inflows, and remittance inflows as a % of GDP as calculated by the authors.</t>
   </si>
   <si>
-    <t>Author's calculations based on financial flows data from IMF, OECD Development Assistance Committee, UNCTAD, and the World Bank</t>
+    <t>Author's calculations based on financial
+flows data from IMF, OECD Development
+Assistance Committee, UNCTAD, and the
+World Bank</t>
   </si>
   <si>
     <t>GrNatSavPrvPGD</t>
@@ -1842,7 +1883,9 @@
     <t>ha</t>
   </si>
   <si>
-    <t>FAOStat online data, Food and Agriculture Organization of the United Nations (retrieved 06/11/2020)</t>
+    <t>FAOStat online data, Food and Agriculture
+Organization of the United Nations (retrieved
+06/11/2020)</t>
   </si>
   <si>
     <t>AgricLand</t>
@@ -5967,7 +6010,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A55" s="13"/>
       <c r="B55" s="19" t="s">
         <v>216</v>
@@ -6021,7 +6064,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A56" s="13"/>
       <c r="B56" s="21" t="s">
         <v>221</v>
@@ -6075,7 +6118,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A57" s="13"/>
       <c r="B57" s="19" t="s">
         <v>224</v>
@@ -6183,7 +6226,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A59" s="13"/>
       <c r="B59" s="19" t="s">
         <v>230</v>
@@ -6237,7 +6280,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A60" s="13"/>
       <c r="B60" s="21" t="s">
         <v>232</v>
@@ -6291,7 +6334,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A61" s="13"/>
       <c r="B61" s="19" t="s">
         <v>235</v>
@@ -9369,7 +9412,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="118" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A118" s="13"/>
       <c r="B118" s="21" t="s">
         <v>417</v>
@@ -9423,7 +9466,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="119" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A119" s="13"/>
       <c r="B119" s="19" t="s">
         <v>423</v>
@@ -9477,7 +9520,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="120" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A120" s="13"/>
       <c r="B120" s="21" t="s">
         <v>426</v>
@@ -9531,7 +9574,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A121" s="13"/>
       <c r="B121" s="19" t="s">
         <v>429</v>
@@ -9585,7 +9628,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="122" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A122" s="13"/>
       <c r="B122" s="21" t="s">
         <v>432</v>
@@ -9639,7 +9682,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A123" s="13"/>
       <c r="B123" s="19" t="s">
         <v>435</v>
@@ -9693,7 +9736,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="124" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A124" s="13"/>
       <c r="B124" s="21" t="s">
         <v>438</v>
@@ -12069,7 +12112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A168" s="13"/>
       <c r="B168" s="21" t="s">
         <v>568</v>
@@ -12231,7 +12274,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="171" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A171" s="13"/>
       <c r="B171" s="19" t="s">
         <v>580</v>
@@ -12393,7 +12436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:18" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A174" s="13"/>
       <c r="B174" s="21" t="s">
         <v>588</v>
@@ -12555,7 +12598,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="177" spans="1:18" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A177" s="13"/>
       <c r="B177" s="19" t="s">
         <v>594</v>
@@ -13278,10 +13321,10 @@
         <v>322</v>
       </c>
       <c r="H190" s="23" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I190" s="23" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J190" s="23" t="s">
         <v>637</v>
